--- a/log_history/Y5_B2526_Endocrinology_scanner1768648471724_cb3642a2f41d338f4902125605491134474225e988d3761e97ba19ed2630b4e1.xlsx
+++ b/log_history/Y5_B2526_Endocrinology_scanner1768648471724_cb3642a2f41d338f4902125605491134474225e988d3761e97ba19ed2630b4e1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Endocrinology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
